--- a/costing.xlsx
+++ b/costing.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIVA SWAROOP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A905C0FA-1659-42E8-9C07-ED36EFDE8948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61403EC-62E0-4B80-B31F-0E4690E8E7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="15580" windowHeight="9740" xr2:uid="{B6C18C50-0CB1-4093-BFCD-C1EB2B8EBB28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,87 +39,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Chicken Fry Piece Biryani_1_Single</t>
-  </si>
-  <si>
-    <t>Chicken Dum Biryani_1_Single</t>
-  </si>
-  <si>
-    <t>Rasa Spl Chicken Biryani(Boneless)_1_Single</t>
-  </si>
-  <si>
-    <t>Andhra Kodivepudu Pulao_1_Single</t>
-  </si>
-  <si>
-    <t>Chicken Fry Piece Biryani_1_Regular</t>
-  </si>
-  <si>
-    <t>Paneer Biryani_1_Single</t>
-  </si>
-  <si>
-    <t>Rasa Spl Boneless Kaju Chicken Pakoda_1_</t>
-  </si>
-  <si>
-    <t>Chicken Lollipop Biryani_1_Single</t>
-  </si>
-  <si>
-    <t>Rasa Spl Chicken Biryani(Boneless)_1_Large</t>
-  </si>
-  <si>
-    <t>Chicken Dum Biryani_1_Regular</t>
-  </si>
-  <si>
-    <t>Chicken Ghee Roast Biryani(Boneless)_1_Single</t>
-  </si>
-  <si>
-    <t>Cool Cream Curd Rice_1_</t>
-  </si>
-  <si>
-    <t>Avakaya Muddapappu Annam_1_</t>
-  </si>
-  <si>
-    <t>Fried Egg Biryani_1_Qtr</t>
-  </si>
-  <si>
-    <t>Chicken 65 Biryani(Boneless)_1_Simple</t>
-  </si>
-  <si>
-    <t>Andhra Kodivepudu Pulao_1_Regular</t>
-  </si>
-  <si>
-    <t>Andhra Chicken Fry_1_</t>
-  </si>
-  <si>
-    <t>Roasted Egg Pulao_1_Qtr</t>
-  </si>
-  <si>
-    <t>Pepper Chicken_1_</t>
-  </si>
-  <si>
-    <t>Chicken Fry Piece Biryani_1_Family Pack</t>
-  </si>
-  <si>
-    <t>Chicken Ghee Roast Biryani(Boneless)_1_Large</t>
-  </si>
-  <si>
-    <t>Paneer Majestic_1_</t>
-  </si>
-  <si>
-    <t>Chicken 65 Biryani(Boneless)_2_Simple</t>
-  </si>
-  <si>
-    <t>Rasa Spl Chicken Biryani(Boneless)_1_Family Pack</t>
-  </si>
-  <si>
-    <t>Chicken Dum Biryani_1_Family Pack</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Costing</t>
   </si>
   <si>
-    <t>Item_final_name</t>
+    <t>Item_name</t>
+  </si>
+  <si>
+    <t>Andhra Kodi Vepudu Pulao</t>
+  </si>
+  <si>
+    <t>Avakaya Muddapappu Annam</t>
+  </si>
+  <si>
+    <t>Avakaya Muddapappu Annam with Chicken Fry</t>
+  </si>
+  <si>
+    <t>Avakaya Pickle Rice</t>
+  </si>
+  <si>
+    <t>Bhimavaram Royyala Vepudu Pulao</t>
+  </si>
+  <si>
+    <t>Boneless Chicken 65 Biryani</t>
+  </si>
+  <si>
+    <t>Boneless Mughlai Chicken Biryani</t>
+  </si>
+  <si>
+    <t>Chicken 65</t>
+  </si>
+  <si>
+    <t>Chicken 65 with Sambhar Rice</t>
+  </si>
+  <si>
+    <t>Chicken Dum Biryani</t>
+  </si>
+  <si>
+    <t>Chicken Fried Rice</t>
+  </si>
+  <si>
+    <t>Chicken Fry Piece Biryani</t>
+  </si>
+  <si>
+    <t>Chicken Ghee Roast Biryani Boneless</t>
+  </si>
+  <si>
+    <t>Chicken Lollipop Biryani [3 Pieces]</t>
+  </si>
+  <si>
+    <t>Chicken Lollipop Pulao</t>
+  </si>
+  <si>
+    <t>Chilli Garlic Egg Fried Rice</t>
+  </si>
+  <si>
+    <t>Chilli Garlic Veg Fried Rice</t>
+  </si>
+  <si>
+    <t>Chilli Paneer</t>
+  </si>
+  <si>
+    <t>Cool Cream Curd Rice</t>
+  </si>
+  <si>
+    <t>Egg 65</t>
+  </si>
+  <si>
+    <t>Fried Egg Biryani [2 Eggs]</t>
+  </si>
+  <si>
+    <t>Ghee Roast Kodi Pulao</t>
+  </si>
+  <si>
+    <t>Ghee Sambhar Rice with Chicken Fry</t>
+  </si>
+  <si>
+    <t>Godavari Royyala Vepudu</t>
+  </si>
+  <si>
+    <t>Gongura Kodi Pulao</t>
+  </si>
+  <si>
+    <t>Gongura Pickle Rice</t>
+  </si>
+  <si>
+    <t>Jeera Rice with Dal Fry</t>
+  </si>
+  <si>
+    <t>Mixed Veg Biryani</t>
+  </si>
+  <si>
+    <t>Mixed Veg Pulao</t>
+  </si>
+  <si>
+    <t>Mushroom Biryani</t>
+  </si>
+  <si>
+    <t>Mushroom Pulao</t>
+  </si>
+  <si>
+    <t>Paneer Biryani</t>
+  </si>
+  <si>
+    <t>Pepper Chicken</t>
+  </si>
+  <si>
+    <t>Prawns Fry Piece Biryani</t>
+  </si>
+  <si>
+    <t>Rasa Special Boneless Chicken Biryani</t>
+  </si>
+  <si>
+    <t>Rasa Special Kodi Pulao</t>
+  </si>
+  <si>
+    <t>Schezwan Chicken Fried Rice</t>
+  </si>
+  <si>
+    <t>Schezwan Veg Fried Rice</t>
+  </si>
+  <si>
+    <t>Special Boneless Kaju Chicken Pakoda [500 ml]</t>
+  </si>
+  <si>
+    <t>Veg Fried Rice</t>
   </si>
 </sst>
 </file>
@@ -178,9 +226,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,221 +561,343 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C88FF6-264D-44F2-B794-28A626D080DB}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>110</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>105</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>163</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>150</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>126</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>71</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>145</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>316</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>176</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>246</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>326</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>300</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/costing.xlsx
+++ b/costing.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIVA SWAROOP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIVA SWAROOP\OneDrive\Desktop\Vivek\Rasa\Online\Swiggy\Jan payout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61403EC-62E0-4B80-B31F-0E4690E8E7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364C922D-9C48-420B-B978-E0AE0265ECBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="15580" windowHeight="9740" xr2:uid="{B6C18C50-0CB1-4093-BFCD-C1EB2B8EBB28}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Swiggy" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Swiggy!$A$1:$B$153</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,132 +39,468 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>Costing</t>
   </si>
   <si>
-    <t>Item_name</t>
-  </si>
-  <si>
-    <t>Andhra Kodi Vepudu Pulao</t>
-  </si>
-  <si>
-    <t>Avakaya Muddapappu Annam</t>
-  </si>
-  <si>
-    <t>Avakaya Muddapappu Annam with Chicken Fry</t>
-  </si>
-  <si>
-    <t>Avakaya Pickle Rice</t>
-  </si>
-  <si>
-    <t>Bhimavaram Royyala Vepudu Pulao</t>
-  </si>
-  <si>
-    <t>Boneless Chicken 65 Biryani</t>
-  </si>
-  <si>
-    <t>Boneless Mughlai Chicken Biryani</t>
-  </si>
-  <si>
-    <t>Chicken 65</t>
-  </si>
-  <si>
-    <t>Chicken 65 with Sambhar Rice</t>
-  </si>
-  <si>
-    <t>Chicken Dum Biryani</t>
-  </si>
-  <si>
-    <t>Chicken Fried Rice</t>
-  </si>
-  <si>
-    <t>Chicken Fry Piece Biryani</t>
-  </si>
-  <si>
-    <t>Chicken Ghee Roast Biryani Boneless</t>
-  </si>
-  <si>
-    <t>Chicken Lollipop Biryani [3 Pieces]</t>
-  </si>
-  <si>
-    <t>Chicken Lollipop Pulao</t>
-  </si>
-  <si>
-    <t>Chilli Garlic Egg Fried Rice</t>
-  </si>
-  <si>
-    <t>Chilli Garlic Veg Fried Rice</t>
-  </si>
-  <si>
-    <t>Chilli Paneer</t>
-  </si>
-  <si>
-    <t>Cool Cream Curd Rice</t>
-  </si>
-  <si>
-    <t>Egg 65</t>
-  </si>
-  <si>
-    <t>Fried Egg Biryani [2 Eggs]</t>
-  </si>
-  <si>
-    <t>Ghee Roast Kodi Pulao</t>
-  </si>
-  <si>
-    <t>Ghee Sambhar Rice with Chicken Fry</t>
-  </si>
-  <si>
-    <t>Godavari Royyala Vepudu</t>
-  </si>
-  <si>
-    <t>Gongura Kodi Pulao</t>
-  </si>
-  <si>
-    <t>Gongura Pickle Rice</t>
-  </si>
-  <si>
-    <t>Jeera Rice with Dal Fry</t>
-  </si>
-  <si>
-    <t>Mixed Veg Biryani</t>
-  </si>
-  <si>
-    <t>Mixed Veg Pulao</t>
-  </si>
-  <si>
-    <t>Mushroom Biryani</t>
-  </si>
-  <si>
-    <t>Mushroom Pulao</t>
-  </si>
-  <si>
-    <t>Paneer Biryani</t>
-  </si>
-  <si>
-    <t>Pepper Chicken</t>
-  </si>
-  <si>
-    <t>Prawns Fry Piece Biryani</t>
-  </si>
-  <si>
-    <t>Rasa Special Boneless Chicken Biryani</t>
-  </si>
-  <si>
-    <t>Rasa Special Kodi Pulao</t>
-  </si>
-  <si>
-    <t>Schezwan Chicken Fried Rice</t>
-  </si>
-  <si>
-    <t>Schezwan Veg Fried Rice</t>
-  </si>
-  <si>
-    <t>Special Boneless Kaju Chicken Pakoda [500 ml]</t>
-  </si>
-  <si>
-    <t>Veg Fried Rice</t>
+    <t>Rasa Spl Chicken Biryani(Boneless)_Large</t>
+  </si>
+  <si>
+    <t>Rasa Spl Chicken Biryani(Boneless)_Single</t>
+  </si>
+  <si>
+    <t>Chicken Fry Piece Biryani_Single</t>
+  </si>
+  <si>
+    <t>Andhra Kodivepudu Pulao_Single</t>
+  </si>
+  <si>
+    <t>Fried Egg Biryani_Half</t>
+  </si>
+  <si>
+    <t>Kaju Spl Chicken Biryani(Boneless)_Large</t>
+  </si>
+  <si>
+    <t>Chicken Lollipop Biryani_Family Pack</t>
+  </si>
+  <si>
+    <t>Roasted Egg Pulao_Half</t>
+  </si>
+  <si>
+    <t>Chicken Dum Biryani(Leg Piece)_Regular</t>
+  </si>
+  <si>
+    <t>Chicken 65 Pulao_Single</t>
+  </si>
+  <si>
+    <t>Chicken Mughlai Biryani(Boneless)_Simple</t>
+  </si>
+  <si>
+    <t>Kaju Special Kodi Pulao_Large</t>
+  </si>
+  <si>
+    <t>Chicken 65 Pulao_Regular</t>
+  </si>
+  <si>
+    <t>Paneer Biryani_Family pack</t>
+  </si>
+  <si>
+    <t>Chicken 65 Biryani(Boneless)_Simple</t>
+  </si>
+  <si>
+    <t>Gongura Kodi Pulao_Qtr</t>
+  </si>
+  <si>
+    <t>Chicken Dum Biryani(Leg Piece)_Single</t>
+  </si>
+  <si>
+    <t>Chicken Lollipop Pulao_Single</t>
+  </si>
+  <si>
+    <t>Andhra Kodivepudu Pulao_Regular</t>
+  </si>
+  <si>
+    <t>Chicken 65 Biryani(Boneless)_Large</t>
+  </si>
+  <si>
+    <t>Chicken Ghee Roast Biryani(Boneless)_Large</t>
+  </si>
+  <si>
+    <t>Rasa Special Kodi Pulao_Single</t>
+  </si>
+  <si>
+    <t>Gongura Chicken Biryani_Single</t>
+  </si>
+  <si>
+    <t>Prawns Fried Piece Biryani_Large</t>
+  </si>
+  <si>
+    <t>Paneer Biryani_Single</t>
+  </si>
+  <si>
+    <t>Paneer Biryani_Large</t>
+  </si>
+  <si>
+    <t>Chicken Ghee Roast Biryani(Boneless)_Family Pack</t>
+  </si>
+  <si>
+    <t>Chicken Lollipop Biryani_Single</t>
+  </si>
+  <si>
+    <t>Chicken Fry Piece Biryani_Regular</t>
+  </si>
+  <si>
+    <t>Mixed Veg Biryani_Half</t>
+  </si>
+  <si>
+    <t>Roasted Egg Pulao_Qtr</t>
+  </si>
+  <si>
+    <t>Chicken Ghee Roast Biryani(Boneless)_Single</t>
+  </si>
+  <si>
+    <t>Chicken Dum Biryani(Leg Piece)_Family Pack</t>
+  </si>
+  <si>
+    <t>Fried Egg Biryani_Qtr</t>
+  </si>
+  <si>
+    <t>Chicken Fry Piece Biryani_Family Pack</t>
+  </si>
+  <si>
+    <t>Chicken Lollipop Biryani_Large</t>
+  </si>
+  <si>
+    <t>Chicken Dum Biryani_Single</t>
+  </si>
+  <si>
+    <t>Chicken Dum Biryani_Regular</t>
+  </si>
+  <si>
+    <t>Ghee Roast Kodi Pulao_Regular</t>
+  </si>
+  <si>
+    <t>Mixed Veg Biryani_Qtr</t>
+  </si>
+  <si>
+    <t>Paneer Baby Corn Biryani_Qtr</t>
+  </si>
+  <si>
+    <t>Chicken Mughlai Biryani(Boneless)_Large</t>
+  </si>
+  <si>
+    <t>Avakaya Muddapappu Annam + Chicken Fry_Gulab Jamun</t>
+  </si>
+  <si>
+    <t>Ulavacharu Guddu Pulao_Qtr</t>
+  </si>
+  <si>
+    <t>Ghee Roast Kodi Pulao_Single</t>
+  </si>
+  <si>
+    <t>Chicken 65 Biryani(Boneless)_Family Pack</t>
+  </si>
+  <si>
+    <t>Avakaya Pickle Rice_Gulab Jamun</t>
+  </si>
+  <si>
+    <t>Rasa Spl Chicken Biryani(Boneless)_Family Pack</t>
+  </si>
+  <si>
+    <t>Avakaya Chicken Biryani_Gulab Jamun</t>
+  </si>
+  <si>
+    <t>Gongura Veg Biryani_Half</t>
+  </si>
+  <si>
+    <t>Bheemavaram Royyala Vepudu Pulao_Large</t>
+  </si>
+  <si>
+    <t>Mushroom Biryani_Full</t>
+  </si>
+  <si>
+    <t>Mushroom Biryani_Qtr</t>
+  </si>
+  <si>
+    <t>Chicken 65 Fried Rice_Gulab Jamun</t>
+  </si>
+  <si>
+    <t>Mushroom Biryani_Half</t>
+  </si>
+  <si>
+    <t>Paneer Baby Corn Biryani_Half</t>
+  </si>
+  <si>
+    <t>Chicken Dum Biryani_Family Pack</t>
+  </si>
+  <si>
+    <t>Gongura Veg Biryani_Qtr</t>
+  </si>
+  <si>
+    <t>Gongura Kodi Pulao_Half</t>
+  </si>
+  <si>
+    <t>Rasa Special Kodi Pulao_Regular</t>
+  </si>
+  <si>
+    <t>Chicken Wings Biryani_Single</t>
+  </si>
+  <si>
+    <t>Ulavacharu Egg Biryani_Half</t>
+  </si>
+  <si>
+    <t>Andhra Kodivepudu Pulao_Family pack</t>
+  </si>
+  <si>
+    <t>Mixed Veg Biryani_Full</t>
+  </si>
+  <si>
+    <t>Prawns Fried piece Biryani_Large</t>
+  </si>
+  <si>
+    <t>Chicken Fry Biryani_Single</t>
+  </si>
+  <si>
+    <t>Roasted Egg Pulao_Full</t>
+  </si>
+  <si>
+    <t>Chicken Fry Biryani_Regular</t>
+  </si>
+  <si>
+    <t>Paneer Biryani_Full</t>
+  </si>
+  <si>
+    <t>Paneer Biryani_Half</t>
+  </si>
+  <si>
+    <t>Chicken Fried piece biryani_Single</t>
+  </si>
+  <si>
+    <t>Chicken Fried piece biryani_Regular</t>
+  </si>
+  <si>
+    <t>Chicken 65 biryani(boneless)_Simple</t>
+  </si>
+  <si>
+    <t>Gongura Chicken Biryani_Large</t>
+  </si>
+  <si>
+    <t>Gongura Ghee Rice_Single</t>
+  </si>
+  <si>
+    <t>Godavari Royyala Vepudu_Single</t>
+  </si>
+  <si>
+    <t>Dragon Chicken_Single</t>
+  </si>
+  <si>
+    <t>Boneless Kaju Chicken Pakoda_Single</t>
+  </si>
+  <si>
+    <t>Rassa Special Ghee Sambar Rice_Single</t>
+  </si>
+  <si>
+    <t>Chicken Pickle Rice_Single</t>
+  </si>
+  <si>
+    <t>Kaju Ghee Rice_Single</t>
+  </si>
+  <si>
+    <t>Avakaya Chicken Biryani_Single</t>
+  </si>
+  <si>
+    <t>Cool Cream Curd Rice_Single</t>
+  </si>
+  <si>
+    <t>Jeedipappu(Kaju) Prawns Fry_Single</t>
+  </si>
+  <si>
+    <t>Egg 65_Single</t>
+  </si>
+  <si>
+    <t>Chilli Garlic Veg Fried Rice_Single</t>
+  </si>
+  <si>
+    <t>Pepper Chicken_Single</t>
+  </si>
+  <si>
+    <t>Gobi Manchurian_Single</t>
+  </si>
+  <si>
+    <t>Paneer Pulav_Single</t>
+  </si>
+  <si>
+    <t>Boneless Chicken Fry_Single</t>
+  </si>
+  <si>
+    <t>Chicken Lollipop_Single</t>
+  </si>
+  <si>
+    <t>Andhra Chicken Fry_Single</t>
+  </si>
+  <si>
+    <t>Avakaya Muddapappu Annam_Single</t>
+  </si>
+  <si>
+    <t>Paneer Majestic_Single</t>
+  </si>
+  <si>
+    <t>Aloo 65_Single</t>
+  </si>
+  <si>
+    <t>Prawns Pickle Rice_Single</t>
+  </si>
+  <si>
+    <t>Chicken Majestic_Single</t>
+  </si>
+  <si>
+    <t>Chicken Fried Rice_Gulab Jamun</t>
+  </si>
+  <si>
+    <t>Chicken 65 Fried Rice_Single</t>
+  </si>
+  <si>
+    <t>Gongura Veg Pulav_Single</t>
+  </si>
+  <si>
+    <t>Avakaya Muddapappu Annam + Chicken Fry_Single</t>
+  </si>
+  <si>
+    <t>Chilli Garlic Chicken Fried Rice_Single</t>
+  </si>
+  <si>
+    <t>Chicken Fried Rice_Single</t>
+  </si>
+  <si>
+    <t>Chicken Drum Sticks_Single</t>
+  </si>
+  <si>
+    <t>Chicken 65_Single</t>
+  </si>
+  <si>
+    <t>Schezwan Chicken Fried Rice_Single</t>
+  </si>
+  <si>
+    <t>Egg Fried Rice_Single</t>
+  </si>
+  <si>
+    <t>Gongura Chicken_Single</t>
+  </si>
+  <si>
+    <t>Chilli Paneer_Single</t>
+  </si>
+  <si>
+    <t>Chicken 555_Single</t>
+  </si>
+  <si>
+    <t>Garden Chicken_Single</t>
+  </si>
+  <si>
+    <t>Chilli Prawns_Single</t>
+  </si>
+  <si>
+    <t>Chicken Manchurian_Single</t>
+  </si>
+  <si>
+    <t>Mixed Veg Pulavs_Single</t>
+  </si>
+  <si>
+    <t>Ghee Sambar Rice + Chicken fry_Single</t>
+  </si>
+  <si>
+    <t>Rasa Spl Boneless Kaju Chicken Pakoda_Single</t>
+  </si>
+  <si>
+    <t>Gobi 65_Single</t>
+  </si>
+  <si>
+    <t>Schezwan Chicken_Single</t>
+  </si>
+  <si>
+    <t>Avakaya Chicken Pulao_Single</t>
+  </si>
+  <si>
+    <t>Mushroom Manchurian_Single</t>
+  </si>
+  <si>
+    <t>Chilli Mushroom_Single</t>
+  </si>
+  <si>
+    <t>Chilli Chicken_Single</t>
+  </si>
+  <si>
+    <t>Avakaya Pickle Rice_Single</t>
+  </si>
+  <si>
+    <t>Crispy Fried Baby Corn_Single</t>
+  </si>
+  <si>
+    <t>Ghee Sambar Rice + Papad_Single</t>
+  </si>
+  <si>
+    <t>Egg Chilli_Single</t>
+  </si>
+  <si>
+    <t>Lemon Chicken_Single</t>
+  </si>
+  <si>
+    <t>Kaju Paneer Fried Rice_Single</t>
+  </si>
+  <si>
+    <t>Gongura Pickle Rice_Single</t>
+  </si>
+  <si>
+    <t>Schezwan Egg Fried Rice_Single</t>
+  </si>
+  <si>
+    <t>Veg Fried Rice_Single</t>
+  </si>
+  <si>
+    <t>Gongura Chicken Rice_Single</t>
+  </si>
+  <si>
+    <t>Baby Corn Manchurian_Single</t>
+  </si>
+  <si>
+    <t>Chilli Garlic Egg Fried Rice_Single</t>
+  </si>
+  <si>
+    <t>Schezwan Veg Fried Rice_Single</t>
+  </si>
+  <si>
+    <t>Curd rice + Chicken Pickle_Single</t>
+  </si>
+  <si>
+    <t>Ghee Sambar Rice + papad_Single</t>
+  </si>
+  <si>
+    <t>Loose Prawns_Single</t>
+  </si>
+  <si>
+    <t>Chilli Chicken Fried Rice_Single</t>
+  </si>
+  <si>
+    <t>Mushroom Pulav_Single</t>
+  </si>
+  <si>
+    <t>Ghee roast Mutton_Single</t>
+  </si>
+  <si>
+    <t>Pepper Egg_Single</t>
+  </si>
+  <si>
+    <t>Crispy fried Baby Corn_Single</t>
+  </si>
+  <si>
+    <t>Boneless Chicken Kaju Pakoda_Single</t>
+  </si>
+  <si>
+    <t>French Fries_Single</t>
+  </si>
+  <si>
+    <t>Rasa special boneless chicken kaju pakodi_Single</t>
+  </si>
+  <si>
+    <t>Mushroom Fried Rice_Single</t>
+  </si>
+  <si>
+    <t>Jeera Rice_Single</t>
+  </si>
+  <si>
+    <t>Paneer Manchurian_Single</t>
+  </si>
+  <si>
+    <t>Avakaya Chicken pulav_Single</t>
+  </si>
+  <si>
+    <t>Rasa Spl Boneless Chicken Kaju Pakoda_Single</t>
+  </si>
+  <si>
+    <t>Chilli Aloo_Single</t>
+  </si>
+  <si>
+    <t>Item_final_name</t>
   </si>
 </sst>
 </file>
@@ -226,7 +562,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,21 +898,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C88FF6-264D-44F2-B794-28A626D080DB}">
-  <dimension ref="A1:B41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F543777D-8265-4C5C-8DB3-DF866D28CDA7}">
+  <dimension ref="A1:B153"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -582,282 +921,282 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1">
-        <v>106</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
-        <v>66</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>180</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="B10" s="1">
-        <v>130</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B12" s="1">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
-        <v>112</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="B15" s="1">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="B16" s="1">
-        <v>104</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1">
-        <v>76</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="B18" s="1">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="B19" s="1">
-        <v>80</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1">
-        <v>60</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="B21" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1">
-        <v>84</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1">
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1">
-        <v>180</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="B27" s="1">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1">
-        <v>70</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="B30" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="B31" s="1">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1">
-        <v>80</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B35" s="1">
-        <v>180</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -865,38 +1204,934 @@
         <v>37</v>
       </c>
       <c r="B37" s="1">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B38" s="1">
-        <v>100</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B39" s="1">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B40" s="1">
-        <v>129</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B87" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B90" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B91" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B94" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B95" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B98" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B100" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B102" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B104" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B109" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B110" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B114" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B115" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B116" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B117" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B119" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B120" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B121" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B123" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B124" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B125" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B126" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B127" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B129" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B130" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B132" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B133" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B134" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B135" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B136" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B137" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B138" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B139" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B140" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B143" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B144" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B146" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B147" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B148" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B149" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B150" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B151" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B152" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B153" s="1">
         <v>80</v>
       </c>
     </row>
